--- a/biology/Botanique/Bursera/Bursera.xlsx
+++ b/biology/Botanique/Bursera/Bursera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Bursera regroupe une centaine d'espèces[1] d'arbustes et d'arbres allant jusqu'à 25 m de haut. L'appellation vient du nom d'un botaniste germano-danois Joachim Burser (en) (1583-1639).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Bursera regroupe une centaine d'espèces d'arbustes et d'arbres allant jusqu'à 25 m de haut. L'appellation vient du nom d'un botaniste germano-danois Joachim Burser (en) (1583-1639).
 Ces arbres se répartissent du sud des États-Unis au nord de l'Argentine.
 Des espèces tropicales d'Asie jadis incluses dans ce genre en ont été retirées pour le genre Protium.
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres à écorce fine se desquamant en bandes. Ils produisent des gommes odorantes riches en oléorésines d'où leur nom d'« arbres à térébenthine » ou turpentine trees.
 Les feuilles sont imparipennées ou simples.
@@ -549,7 +563,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bursera aloexylon (Schiede ex Schltdl.) Engl.
